--- a/Notes/Weapons.xlsx
+++ b/Notes/Weapons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Weapons for Blackened Soil</t>
   </si>
@@ -57,25 +57,10 @@
     <t>Index of type of projectile created by splitting.</t>
   </si>
   <si>
-    <t>Wind resistance</t>
-  </si>
-  <si>
     <t>Float</t>
   </si>
   <si>
     <t>Int</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>How much this obeys wind</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>How fast it moves.</t>
   </si>
   <si>
     <t>Split speed</t>
@@ -423,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -465,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -476,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -487,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -498,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -506,41 +491,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
